--- a/bookreader-backend/src/main/java/com/wechat/BookReader/book.xlsx
+++ b/bookreader-backend/src/main/java/com/wechat/BookReader/book.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15755" windowHeight="9084"/>
+    <workbookView windowWidth="14568" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>bookId</t>
   </si>
@@ -1055,6 +1055,648 @@
   <si>
     <t>江惠坤，邵荣</t>
   </si>
+  <si>
+    <t>第一部分 概述
+第1章 导论
+第2章 计算机的演变和性能
+第二部分 计算机系统
+第3章 系统总线
+第4章 内部存储器
+……
+第三部分 中央处理器
+第8章 计算机算法
+第9章 指令集：特征和功能
+……
+第四部分 控制器
+第14章 控制器操作
+第15章 微程序式控制
+……
+第五部分 并行处理的组织
+第16章 并行处理
+附录A 数字逻辑
+附录B 计算机组织与结构课题
+词汇表</t>
+  </si>
+  <si>
+    <t>计算机组织与结构</t>
+  </si>
+  <si>
+    <t>../../assets/images/bookExamples/计算机组织与结构.jpg</t>
+  </si>
+  <si>
+    <t>本书是一本反映当代计算机系统结构主流技术和最新技术进步的优秀教材。作者以Intel Pentium II和PowerPC作为主要考察实例，将当代计算机系统性能设计问题和计算机组织与结构的基本概念及原理紧密联系起来。本书详细讨论了CPU性能设计、指令流水线、整数和浮点数运算、微程序设计的控制器；介绍了RISC处理器和超标量处理器，并介绍了最新的IA—64结构；介绍了PCI新型系统总线规范；介绍了Ca</t>
+  </si>
+  <si>
+    <t>Stallings</t>
+  </si>
+  <si>
+    <t>译者序
+前言
+第1章 引论
+1.1 本书讨论的内容
+1.2 数学知识复习
+1.2.1 指数
+1.2.2 对数
+1.2.3 级数
+1.2.4 模运算
+1.2.5 证明的方法
+1.3 递归简论
+1.4 实现泛型特性构件pre-Java5
+1.4.1 使用Object表示泛型
+1.4.2 基本类型的包装
+1.4.3 使用接口类型表示泛型
+1.4.4 数组类型的兼容性
+1.5 利用Java5泛性实现泛型特性成分
+1.5.1 简单的泛型类和接口
+1.5.2 自动装箱/拆箱
+1.5.3 带有限制的通配符
+1.5.4 泛型static方法
+1.5.5 类型限界
+1.5.6 类型擦除
+1.5.7 对于泛型的限制
+1.6 函数对象
+小结
+练习
+参考文献
+第2章 算法分析
+2.1 数学基础
+2.2 模型
+2.3 要分析的问题
+2.4 运行时间计算
+2.4.1 一个简单的例子
+2.4.2 一般法则
+2.4.3 最大子序列和问题的求解
+2.4.4 运行时间中的对数
+2.4.5 检验你的分析
+2.4.6 分析结果的准确性
+小结
+练习
+参考文献
+第3章 表、栈和队列
+3.1 抽象数据类型
+3.2 表ADT
+3.2.1 表的简单数组实现
+3.2.2 简单链表
+3.3 Java Collections API中的表
+3.3.1 Collection接口
+3.3.2 Iterator接口
+3.3.3 List接口、ArrayList类和LinkedList类
+3.3.4 例：remove方法对LinkedList类的使用
+3.3.5 关于ListIterator接口
+3.4 ArrayList类的实现
+3.4.1 基本类
+3.4.2 迭代器、Java嵌套类和内部类
+3.5 Linked List类的实现
+3.6 栈ADT
+3.6.1 栈模型
+3.6.2 栈的实现
+3.6.3 应用
+3.7 队列ADT
+3.7.1 队列模型
+3.7.2 队列的数组实现
+3.7.3 队列的应用
+小结
+练习
+第4章 树
+4.1 预备知识
+4.1.1 树的实现
+4.1.2 树的遍历及应用
+4.2 二叉树
+4.2.1 实现
+4.2.2 例子：表达式树
+4.3 查找树ADT——二叉查找树
+4.3.1 contains方法
+4.3.2 findMin方法和findMax方法
+4.3.3 insert方法
+4.3.4 remove方法
+4.3.5 平均情况分析
+4.4 AVL树
+4.4.1 单旋转
+4.4.2 双旋转
+4.5 伸展树
+4.5.1 一个简单的想法（不能直接使用）
+4.5.2 展开
+4.6 树的遍历
+4.7 B树
+4.8 标准库中的集合与映射
+4.8.1 关于Set接口
+4.8.2 关于Map接口
+4.8.3 TreeSet类和TreeMap类的实现
+4.8.4 使用多个映射的例
+小结
+练习
+参考文献
+第5章 散列
+5.1 一般想法
+5.2 散列函数
+5.3 分离链接法
+5.4 不用链表的散列表
+5.4.1 线性探测法
+5.4.2 平方探测法
+5.4.3 双散列
+5.5 再散列
+5.6 标准库中的散列表
+5.7 可扩散列
+小结
+练习
+参考文献
+第6章 优先队列（堆）
+6.1 模型
+6.2 一些简单的实现
+6.3 二叉堆
+6.3.1 结构性质
+6.3.2 堆序性质
+6.3.3 基本的堆操作
+6.3.4 其他的堆操作
+6.4 优先队列的应用
+6.4.1 选择问题
+6.4.2 事件模拟
+6.5 d-堆
+6.6 左式堆
+6.6.1 左式堆性质
+6.6.2 左式堆操作
+6.7 斜堆
+6.8 二项队列
+6.8.1 二项队列结构
+6.8.2 二项队列操作
+6.8.3 二项队列的实现
+6.9 标准库中的优先队列
+小结
+练习
+参考文献
+第7章 排序
+7.1 预备知识
+7.2 插入排序
+7.2.1 算法
+7.2.2 插入排序的分析
+7.3 一些简单排序算法的下界
+7.4 希尔排序
+7.5 堆排序
+7.6 归并排序
+7.7 快速排序
+7.7.1 选取枢纽元
+7.7.2 分割策略
+7.7.3 小数组
+7.7.4 实际的快速排序例程
+7.7.5 快速排序的分析
+7.7.6 选择问题的线性期望时间算法
+7.8 排序算法的一般下界
+7.9 桶式排序
+7.10 外部排序
+7.10.1 为什么需要一些新的算法
+7.10.2 外部排序模型
+7.10.3 简单算法
+7.10.4 多路合并
+7.10.5 多相合并
+7.10.6 替换选择
+小结
+练习题
+参考文献
+第8章 不相交集类
+8.1 等价关系
+8.2 动态等价性问题
+8.3 基本数据结构
+8.4 灵巧求并算法
+8.5 路径压缩
+8.6 路径压缩和按秩求并的最坏情形
+8.7 一个应用
+小结
+练习题
+参考文献
+第9章 图论算法
+9.1 若干定义
+9.2 拓扑排序
+9.3 最短路径算法
+9.3.1 无权最短路径
+9.3.2 Dijkstra算法
+9.3.3 具有负边值的图
+9.3.4 无圈图
+9.3.5 所有点对最短路径
+9.3.6 最短路径的例子
+9.4 网络流问题
+9.5 最小生成树
+9.5.1 Prim算法
+9.5.2 Kruskal算法
+9.6 深度优先搜索的应用
+9.6.1 无向图
+9.6.2 双连通性
+9.6.3 欧拉回路
+9.6.4 有向图
+9.6.5 查找强分支
+9.7 NP完全性介绍
+9.7.1 难与易
+9.7.2 NP类
+9.7.3 NP完全问题
+小结
+练习
+参考文献
+第10章 算法设计技巧
+10.1 贪婪算法
+10.1.1 一个简单的调度问题
+10.1.2 哈夫曼编码
+10.1.3 近似装箱问题
+10.2 分治算法
+10.2.1 分治算法的运行时间
+10.2.2 最近点问题
+10.2.3 选择问题
+10.2.4 一些算术问题的理论改进
+10.3 动态规划
+10.3.1 用一个表代替递归
+10.3.2 矩阵乘法的顺序安排
+10.3.3 最优二叉查找树
+10.3.4 所有点对最短路径
+10.4 随机化算法
+10.4.1 随机数发生器
+10.4.2 跳跃表
+10.4.3 素性测试
+10.5 回溯算法
+10.5.1 收费公路重建问题
+10.5.2 博弈
+小结
+练习
+参考文献
+第11章 摊还分析
+11.1 一个无关的智力问题
+11.2 二项队列
+11.3 斜堆
+11.4 斐波那契堆
+11.4.1 切除左式堆中的节点
+11.4.2 二项队列的懒惰合并
+11.4.3 斐波那契堆操作
+11.4.4 时间界的证明
+11.5 伸展树
+小结
+练习
+参考文献
+第12章 高级数据结构及其实现
+12.1 自顶向下伸展树
+12.2 红黑树
+12.2.1 自底向上的插入
+12.2.2 自顶向下红黑树
+12.2.3 自顶向下的删除
+12.3 确定性跳跃表
+12.4 AA树
+12.5 treap树
+12.6 k-d树
+12.7 配对堆
+小结
+练习
+参考文献
+索引</t>
+  </si>
+  <si>
+    <t>数据结构</t>
+  </si>
+  <si>
+    <t>../../assets/images/bookExamples/数据结构.jpg</t>
+  </si>
+  <si>
+    <t>本书是国外数据结构与算法分析方面的经典教材，使用卓越的Java编程语言作为实现工具讨论了数据结构（组织大量数据的方法）和算法分析（对算法运行时间的估计）。 随着计算机速度的不断增加和功能的日益强大，人们对有效编程和算法分析的要求也不断增长。本书把算法分析与最有效率的Java程序的开发有机地结合起来，深入分析每种算法，内容全面、缜密严格，并细致讲解精心构造程序的方法。</t>
+  </si>
+  <si>
+    <t>MarkAllen Weiss</t>
+  </si>
+  <si>
+    <t>出版者的话
+译者充
+前言
+第1章 引论
+1.1 什么是操作系统
+1.1.1 作为扩展机器的操作系统
+1.1.2 作为资源管理者的操作系统
+1.2 操作系统的历史
+1.2.1 第一代（1945～1955）：真空管和穿孔卡片
+1.2.2 第二代（1955～1965）：晶体管和批处理系统
+1.2.3 第三代（1965～1980）：集成电路芯片和多道程序设计
+l.2.4第四代（1980年至今）：个人
+计算机
+1.3 计算机硬件介绍
+1.3.1 处理器
+1.3.2 存储器
+1.3.3 磁盘
+1.3.4 磁带
+1.3.5 I／O设备
+1.3.6 总线
+1.3.7 启动计算机
+1.4 操作系统大观园
+1.4.1 大型机操作系统
+1.4.2 服务器操作系统
+1.4.3 多处理器操作系统
+1.4.4 个人计算机操作系统
+1.4.5 掌上计算机操作系统
+1.4.6 嵌入式操作系统
+1.4.7 传感器节点操作系统
+1.4.8 实时操作系统
+1.4.9 智能卡操作系统
+1.5 操作系统概念
+1.5.1 进程
+1.5.2 地址空间
+1.5.3 文件
+1.5.4 输入／输出
+1.5.5 保护
+1.5.6 shell
+1.5.7 个体重复系统发育
+1.6 系统调用
+1.6.1 用于进程管理的系统调用
+1.6.2 用于文件管理的系统调用
+1.6.3 用于目录管理的系统调用
+1.6.4 各种系统调用
+1.6.5 WindowsWin32API
+1.7 操作系统结构
+1.7.1 单体系统
+1.7.2 层次式系统
+1.7.3 微内核
+1.7.4 客户机-服务器模式
+1.7.5 虚拟机
+1.7.6 外核
+1.8 依靠C的世界
+1.8.1 C语言
+1.8.2 头文件
+1.8.3 大型编程项目
+1.8.4 运行模型
+1.9 有关操作系统的研究
+1.10 本书其他部分概要
+1.11 公制单位
+1.12 小结
+习题
+第2章 进程与线程
+2.1 进程
+2.1.1 进程模型
+2.1.2 创建进程
+2.1.3 进程的终止
+2.1.4 进程的层次结构
+2.1.5 进程的状态
+2.1.6 进程的实现
+2.1.7 多道程序设计模型
+2.2 线程
+2.2.1 线程的使用
+2.2.2 经典的线程模型
+2.2.3 POSIX线程
+2.2.4 在用户空间中实现线程
+2.2.5 在内核中实现线程
+2.2.6 混合实现
+2.2.7 调度程序激活机制
+2.2.8 弹出式线程
+2.2.9 使单线程代码多线程化
+2.3 进程间通信
+2.3.1 竞争条件
+2.3.2 临界区
+2.3.3 忙等待的互斥
+2.3.4 睡眠与唤醒
+2.3.5 信号量
+2.3.6 互斥量
+2.3.7 管程
+2.3.8 消息传递
+2.3.9 屏障
+2.4 调度
+2.4.1 调度介绍
+2.4.2 批处理系统中的调度
+2.4.3 交互式系统中的调度
+2.4.4 实时系统中的调度
+2.4.5 策略和机制
+2.4.6 线程调度
+2.5 经典的IPC问题
+2.5.1 哲学家就餐问题
+2.5.2 读者一写者问题
+2.6 有关进程和线程的研究
+2.7 小结
+习题
+第3章 存储管理
+3.1 无存储器抽象
+3.2 一种存储器抽象：地址空间
+3.2.1 地址空间的概念
+3.2.2 交换技术
+3.2.3 空闲内存管理
+3.3 虚拟内存
+3.3.1 分页
+3.3.2 页表
+3.3.3 加速分页过程
+3.3.4 针对大内存的页表
+3.4 页面置换算法
+3.4.1 最优页面置换算法
+3.4.2 最近未使用页面置换算法
+3.4.3 先进先出页面置换算法
+3.4.4 第二次机会页面置换算法
+3.4.5 时钟页面置换算法
+3.4.6 最近最少使用页面置换算法
+3.4.7 用软件模拟LRU
+3.4.8 工作集页面置换算法
+3.4.9 工作集时钟页面置换算法
+3.4.10 页面置换算法小结
+3.5 分页系统中的设计问题
+3.5.1 局部分配策略与全局分配策略
+3.5.2 负载控制
+3.5.3 页面大小
+3.5.4 分离的指令空间和数据空间
+3.5.5 共享页面
+3.5.6 共享库
+3.5.7 内存映射文件
+3.5.8 清除策略
+3.5.9 虚拟内存接口
+3.6 有关实现的问题._
+3.6.1 与分页有关的工作
+3.6.2 缺页中断处理
+3.6.3 指令备份__
+3.6.4 锁定内存中的页面
+3.6.5 后备存储
+3.6.6 策略和机制的分离
+3.7 分段
+3.7.1 纯分段的实现
+3.7.2 分段和分页结合：MULTICS
+3.7.3 分段和分页结合：Intel Pentium
+3.8 有关存储管理的研究
+3.9 小结
+习题
+第4章 文件系统
+4.1 文件
+4.1.1 文件命名
+4.1.2 文件结构
+4.1.3 文件类型
+4.1.4 文件存取
+4.1.5 文件属性
+4.1.6 文件操作
+4.1.7 使用文件系统调用的一个示例程序
+4.2 目录
+4.2.1 一级目录系统
+4.2.2 层次目录系统
+4.2.3 路径名
+4.2.4 目录操作
+4.3 文件系统的实现
+4.3.1 文件系统布局
+4.3.2 文件的实现
+4.3.3 目录的实现
+4.3.4 共享文件
+4.3.5 日志结构文件系统
+4.3.6 日志文件系统
+4.3.7 虚拟文件系统
+4.4 文件系统管理和优化
+4.4.1 磁盘空间管理
+4.4.2 文件系统备份
+4.4.3 文件系统的一致性
+4.4.4 文件系统性能
+4.4.5 磁盘碎片整理
+4.5 文件系统实例
+4.5.1 CD-ROM文件系统
+4.5.2 MS-DOS文件系统
+4.5.3 UNIXV7文件系统
+4.6 有关文件系统的研究
+4.7 小结
+习题
+第5章 输入／输出
+5.1 I／O硬件原理
+5.1.1 I／O设备
+5.1.2 设备控制器
+5.1.3 内存映射I／O
+5.1.4 直接存储器存取
+5.1.5 重温中断
+5.2 I／O软件原理
+5.2.1 I／O软件的目标
+5.2.2 程序控制I／O
+5.2.3 中断驱动I／O
+5.2.4 使用DMA的I／O
+5.3 I／O软件层次
+5.3.1 中断处理程序
+5.3.2 设备驱动程序
+5.3.3 与设备无关的I／O软件
+5.3.4 用户空间的I／O软件
+5.4 盘
+5.4.1 盘的硬件
+5.4.2 磁盘格式化
+5.4.3 磁盘臂调度算法
+5.4.4 错误处理
+5.4.5 稳定存储器
+5.5 时钟
+5.5.1 时钟硬件
+5.5.2 时钟软件
+5.5.3 软定时器
+5.6 用户界面：键盘、鼠标和监视器
+5.6.1 输入软件
+5.6.2 输出软件
+5.7 瘦客户机
+5.8 电源管理
+5.8.1 硬件问题
+5.8.2 操作系统问题
+5.8.3 应用程序问题
+5.9 有关输入／输出的研究
+5.10 小结
+习题
+第6章 死锁
+6.1 资源
+6.1.1 可抢占资源和不可抢占资源
+6.1.2 资源获取
+6.2 死锁概述
+6.2.1 资源死锁的条件
+6.2.2 死锁建模
+6.3 鸵鸟算法
+6.4 死锁检测和死锁恢复
+6.4.1 每种类型一个资源的死锁检测
+6.4.2 每种类型多个资源的死锁检测
+6.4.3 从死锁中恢复
+6.5 死锁避免
+6.5.1 资源轨迹图
+6.5.2 安全状态和不安全状态
+6.5.3 单个资源的银行家算法
+6.5.4 多个资源的银行家算法
+6.6 死锁预防
+6.6.1 破坏互斥条件
+6.6.2 破坏占有和等待条件
+6.6.3 破坏不可抢占条件
+6.6.4 破坏环路等待条件
+6.7 其他问题
+6.7.1 两阶段加锁
+6.7.2 通信死锁
+6.7.3 活锁
+6.7 -4饥饿
+6.8.有关死锁的研究
+6.9 小结
+习题
+第7章 多媒体操作系统
+7.1 多媒体简介
+7.2 多媒体文件
+7.2.1 视频编码
+7.2.2 音频编码
+7.3 视频压缩
+7.3.1 JPEG标准
+7.3.2 MPEG标准
+7.4 音频压缩
+7.5 多媒体进程调度
+7.5.1 调度同质进程
+7.5.2 一般实时调度
+7.5.3 速率单调调度
+7.5.4 最早最终时限优先调度
+7.6 多媒体文件系统范型
+7.6.1 VCR控制功能
+7.6.2 近似视频点播
+7.6.3 具有VCR功能的近似视频点播
+7.7 文件存放
+7.7.1 在单个磁盘上存放文件
+7.7.2 两个替代的文件组织策略
+7.7.3 近似视频点播的文件存放
+7.7.4 在单个磁盘上存放多个文件
+7.7.5 在多个磁盘上存放文件
+7.8 高速缓存
+7.8.1 块高速缓存
+7.8.2 文件高速缓存
+7.9 多媒体磁盘调度
+7.9.1 静态磁盘调度
+7.9.2 动态磁盘调度
+7.10 有关多媒体的研究
+7.11 小结
+习题
+第8章 多处理机系统
+8.1 多处理机
+8.1.1 多处理机硬件
+8.1.2 多处理机操作系统类型
+8.1.3 多处理机同步
+8.1.4 多处理机调度
+8.2 多计算机
+8.2.1 多计算机硬件
+8.2.2 低层通信软件
+8.2.3 用户层通信软件
+8.2.4 远程过程调用
+8.2.5 分布式共享存储器
+8.2.6 多计算机调度
+8.2.7 负载平衡
+8.3 虚拟化
+8.3.1 虚拟化的条件
+8.3.2 Ⅰ型管理程序
+8.3.3 Ⅱ型管理程序
+8.3.4 准虚拟化
+8.3.5 内存的虚拟化
+8.3.6 I／0设备的虚拟化
+8.3.7 虚拟工具
+8.3.8 多核处理机上的虚拟机
+8.3.9 授权问题
+8.4 分布式系统
+8.4.1 网络硬件
+8.4.2 网络服务和协议
+8.4.3 基于文档的中间件
+8.4.4 基于文件系统的中间件
+8.4.5 基于对象的中间件
+8.4.6 基于协作的中间件
+8.4.7 网格
+8.5 有关多处理机系统的研究
+8.6 小结
+习题
+第9章 安全
+第10章 实例研究1：Linux
+第11章 实例研究2：Windows Visa
+第12章 实例研究3：Symbian操作系统
+第13章 操作系统设计
+第14章 阅读材料及参考文献</t>
+  </si>
+  <si>
+    <t>操作系统</t>
+  </si>
+  <si>
+    <t>../../assets/images/bookExamples/操作系统.jpg</t>
+  </si>
+  <si>
+    <t>本书是操作系统领域的经典之作，与第2版相比，增加了关于Linux、Windows Vista和Symbian操作系统的详细介绍。书中集中讨论了操作系统的基本原理，包括进程、线程、存储管理、文件系统、输入/输出、死锁等，同时还包含了有关计算机安全、多媒体操作系统、掌上计算机操作系统、微内核、多核处理机上的虚拟机以及操作系统设计等方面的内容。此外，还在第2版的基础上对部分习题进行了增删，更有助于读者学习和对知识的理解及掌握。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew S·Tanenbaum </t>
+  </si>
 </sst>
 </file>
 
@@ -1062,16 +1704,36 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF111111"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1084,7 +1746,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1100,36 +1785,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1143,15 +1799,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1162,14 +1817,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1189,31 +1836,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1228,31 +1876,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1264,151 +2056,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1431,52 +2079,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1505,16 +2118,51 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1527,10 +2175,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1539,142 +2187,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2024,16 +2675,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="13.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="15.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="54.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="24.3333333333333" customWidth="1"/>
   </cols>
@@ -2199,36 +2850,73 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="409.5" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
       <c r="E8">
         <v>5</v>
       </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" ht="409.5" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
       <c r="E9">
         <v>5</v>
       </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="10" ht="13" customHeight="1" spans="1:5">
+    <row r="10" ht="13" customHeight="1" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
       <c r="E10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
